--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4257332.112055678</v>
+        <v>4250315.097163968</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800619</v>
+        <v>2264668.837800621</v>
       </c>
     </row>
     <row r="8">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>279.0583553990753</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -721,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>291.718329703531</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>145.0692123933845</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,16 +819,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>78.25152918034388</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,22 +861,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>54.47555601903407</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.9926801761842</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>146.2003851219579</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481168</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.7112368822933</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>94.59270453218387</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>43.31785343914014</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>68.78350416258503</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>96.33626969156951</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>55.90301252244922</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>174.908317414807</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1384,13 +1384,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>118.4898845065125</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>118.4839296945755</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1666,7 +1666,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1821,19 +1821,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>204.1291651532053</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>60.55410371795229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1903,7 +1903,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>61.62325076010693</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>87.65220976162065</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2478,25 +2478,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5991674685929319</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,19 +2760,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>111.2282541559852</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2952,13 +2952,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>4.012174021609587</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
@@ -3012,10 +3012,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3097,7 +3097,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560451</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3125,10 +3125,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H33" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836033</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>152.3555112799746</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784605</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3362,10 +3362,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H36" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675362</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,25 +3471,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>198.3740080435037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.779135052741</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3599,10 +3599,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H39" t="n">
-        <v>94.98542483262923</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014455</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.4192454642721</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836033</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>70.99853846734551</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.964516789692</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I41" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V43" t="n">
-        <v>89.64664400971304</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>159.1904430121724</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>109.7395205132413</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>959.5129866402885</v>
+        <v>1603.407129497229</v>
       </c>
       <c r="C2" t="n">
-        <v>959.5129866402885</v>
+        <v>1234.444612556818</v>
       </c>
       <c r="D2" t="n">
-        <v>959.5129866402885</v>
+        <v>1234.444612556818</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1234.444612556818</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4327,25 +4327,25 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N2" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P2" t="n">
         <v>2544.691559791253</v>
@@ -4357,7 +4357,7 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T2" t="n">
         <v>2247.308246834949</v>
@@ -4369,13 +4369,13 @@
         <v>1993.546461473041</v>
       </c>
       <c r="W2" t="n">
-        <v>1640.777806202927</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X2" t="n">
-        <v>1346.11282670441</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y2" t="n">
-        <v>1346.11282670441</v>
+        <v>1603.407129497229</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170839</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359569</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747056</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692501</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4406,28 +4406,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018223</v>
@@ -4442,19 +4442,19 @@
         <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167583</v>
       </c>
       <c r="V3" t="n">
         <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207639</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002106</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D4" t="n">
-        <v>394.4025473335336</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E4" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600565</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>550.5654064942405</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>336.2769833124032</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>108.9687959810049</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y4" t="n">
-        <v>473.4444960005476</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>1005.372199209268</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>1005.372199209268</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>1005.372199209268</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>619.583946611024</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533143</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733131</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280444</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2134.880026519316</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>1782.111371249202</v>
       </c>
       <c r="X5" t="n">
-        <v>2520.971603332393</v>
+        <v>1782.111371249202</v>
       </c>
       <c r="Y5" t="n">
-        <v>2130.832271356581</v>
+        <v>1391.97203927339</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>318.4909684781774</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4743,34 +4743,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064346</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>684.3735766921516</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>456.3840257941342</v>
       </c>
       <c r="Y7" t="n">
-        <v>500.1394333084171</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1233.603060210037</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="C8" t="n">
-        <v>864.6405432696254</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1022.045772923999</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>1717.512263598976</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W8" t="n">
-        <v>1620.202900274159</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X8" t="n">
-        <v>1620.202900274159</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y8" t="n">
-        <v>1620.202900274159</v>
+        <v>1408.645612988121</v>
       </c>
     </row>
     <row r="9">
@@ -4859,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170834</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359564</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747052</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692497</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961347</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673426</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036469</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4904,31 +4904,31 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.388532134052</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>698.7120650600564</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X10" t="n">
-        <v>698.7120650600564</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y10" t="n">
-        <v>522.0369969642917</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155885</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5068,7 +5068,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5083,10 +5083,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701562</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619851</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1757.603879777667</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>623.2354609838696</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C13" t="n">
-        <v>623.2354609838696</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D13" t="n">
-        <v>623.2354609838696</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E13" t="n">
-        <v>475.3223674014765</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F13" t="n">
-        <v>328.4324199035661</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
@@ -5223,28 +5223,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U13" t="n">
-        <v>1098.712528333287</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>844.0280401273998</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W13" t="n">
-        <v>844.0280401273998</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X13" t="n">
-        <v>844.0280401273998</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y13" t="n">
-        <v>623.2354609838696</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5354,25 +5354,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>549.5984374701562</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>796.3635653766204</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>1103.683698656582</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N15" t="n">
-        <v>1433.546326320615</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O15" t="n">
-        <v>2016.139981183167</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P15" t="n">
         <v>2536.440602918915</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247865</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188996</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W16" t="n">
-        <v>420.034083581939</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>420.034083581939</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y16" t="n">
-        <v>358.8683222506741</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
@@ -5518,25 +5518,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5551,16 +5551,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,40 +5582,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341675</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M18" t="n">
-        <v>841.8631140141292</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N18" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O18" t="n">
-        <v>2315.73845358094</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P18" t="n">
-        <v>2520.760934363149</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
         <v>97.21709146028584</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>1075.210845262961</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V19" t="n">
-        <v>1075.210845262961</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W19" t="n">
-        <v>1075.210845262961</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X19" t="n">
-        <v>847.2212943649436</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>626.4287152214134</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.09316900344</v>
@@ -5743,7 +5743,7 @@
         <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822459</v>
@@ -5755,25 +5755,25 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5785,16 +5785,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C21" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D21" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E21" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>2375.989236263798</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>2786.879505108311</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>3033.644633014775</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>3484.747546292011</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N21" t="n">
-        <v>4289.159124556162</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O21" t="n">
-        <v>4568.699189774859</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S21" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T21" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U21" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V21" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W21" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X21" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y21" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="22">
@@ -5886,7 +5886,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
         <v>97.21709146028584</v>
@@ -5916,10 +5916,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1099.383571417482</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>810.2549326310402</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>555.5704444251534</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>266.1532743881928</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5971,55 +5971,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>659.3731057211721</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>966.6932390011339</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>1296.555866665167</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
         <v>2328.464088060424</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>527.6488635960989</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>377.5322241837631</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>986.0022165609664</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>696.5850465240057</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>696.5850465240057</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6211,37 +6211,37 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
         <v>4454.632848899127</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N27" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>3717.579932792637</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>4749.779469576118</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>4749.779469576118</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.427697701385</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>4637.427697701385</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V28" t="n">
-        <v>4637.427697701385</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W28" t="n">
-        <v>4348.010527664424</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>4120.020976766407</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>3899.228397622877</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6442,40 +6442,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6490,22 +6490,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6542,28 +6542,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>709.4934589365139</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N30" t="n">
-        <v>2032.925401907738</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O30" t="n">
-        <v>2312.465467126435</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.810590821615</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,13 +6597,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>251.3864319045504</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>101.2697924922147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
         <v>97.21709146028584</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.92115703528</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T31" t="n">
-        <v>964.135741824786</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>675.0071030383442</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>420.3226148324574</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>420.3226148324574</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>420.3226148324574</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,70 +6679,70 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805474</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I32" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514069</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014285</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141859</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465293</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121722</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851608</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590528</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614725</v>
@@ -6773,31 +6773,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.708168625643</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>287.7778528277023</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>534.5429807341657</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653861</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.87805691801</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136707</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383383</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241954</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688065</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799353</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471177</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980061</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557899</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1387.841167119725</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1187.921157035277</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1034.026701196919</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1034.026701196919</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>1034.026701196919</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>744.6095311599582</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>744.6095311599582</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6928,61 +6928,61 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514069</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515093</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207822</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014285</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231255</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141859</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465293</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121722</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851608</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7010,31 +7010,31 @@
         <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.2170914602857</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.708168625643</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277023</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845903</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.043068977051</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N36" t="n">
-        <v>1999.905696641083</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2331.418122136707</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3889.28331542696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>3889.28331542696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>3889.28331542696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>3889.28331542696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>3889.28331542696</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746781</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294724</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380581</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625192</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636321</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403504</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431051</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436448</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.02113004213</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014285</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>4749.77946957611</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>4749.77946957611</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4525.994054365616</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U37" t="n">
-        <v>4525.994054365616</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V37" t="n">
-        <v>4271.309566159729</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W37" t="n">
-        <v>4271.309566159729</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>4070.9317802572</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y37" t="n">
-        <v>4070.9317802572</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="38">
@@ -7153,70 +7153,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751407</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795204</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515094</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619123</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643318</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.63284889912</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207823</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047447</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316297</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.345128735815</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675026</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>138.7081686256432</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K39" t="n">
-        <v>287.7778528277025</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>901.6749225845905</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.995055864551</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N39" t="n">
-        <v>1538.857683528583</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O39" t="n">
-        <v>1818.397748747279</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060425</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7289,7 +7289,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>821.8466850111571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C40" t="n">
-        <v>821.8466850111571</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D40" t="n">
-        <v>671.7300455988213</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E40" t="n">
-        <v>523.8169520164282</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F40" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G40" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383385</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241955</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>259.7851881688067</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799356</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471179</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>1049.608084974665</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>1283.483062980062</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585744</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.9162705579</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473452</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.210845262958</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U40" t="n">
-        <v>1075.210845262958</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V40" t="n">
-        <v>1075.210845262958</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W40" t="n">
-        <v>1075.210845262958</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>1075.210845262958</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y40" t="n">
-        <v>1003.495149841397</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795209</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C42" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D42" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E42" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
         <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358149</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277032</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>901.6749225845919</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1208.995055864553</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N42" t="n">
-        <v>1538.857683528586</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O42" t="n">
-        <v>2208.321444831245</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P42" t="n">
-        <v>2413.343925613454</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7526,7 +7526,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V42" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W42" t="n">
         <v>1571.258395043133</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7578,13 +7578,13 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O43" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
         <v>1460.082827585746</v>
@@ -7593,28 +7593,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1187.92115703528</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U43" t="n">
-        <v>1187.92115703528</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V43" t="n">
-        <v>1097.368991368903</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W43" t="n">
-        <v>807.9518213319426</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>579.9622704339253</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y43" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>921.193690363625</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
         <v>1228.513823643587</v>
@@ -7742,7 +7742,7 @@
         <v>1558.376451307619</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>4075.778457043642</v>
+        <v>434.3285960683721</v>
       </c>
       <c r="C46" t="n">
-        <v>4075.778457043642</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D46" t="n">
-        <v>3925.661817631306</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E46" t="n">
-        <v>3777.748724048913</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F46" t="n">
-        <v>3777.748724048913</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G46" t="n">
-        <v>3609.573402368733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431058</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436455</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042138</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014294</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>4525.994054365625</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>4525.994054365625</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>4365.195627080602</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W46" t="n">
-        <v>4075.778457043642</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>4075.778457043642</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y46" t="n">
-        <v>4075.778457043642</v>
+        <v>615.9770608986119</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747119</v>
+        <v>166.6588033951785</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270191</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747073</v>
+        <v>166.658803395178</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>350.4438349360588</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,28 +8768,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814625</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>297.2466435761025</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>34.78428385445216</v>
@@ -9008,28 +9008,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>409.7003683229582</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>306.1147370139954</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9254,19 +9254,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q18" t="n">
-        <v>5.10066308935896</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.145412571163</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9488,22 +9488,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>145.2351313103781</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9646,7 +9646,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>234.4116509503166</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9953,13 +9953,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,13 +9968,13 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>253.7371603504737</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>176.7176547498449</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>8.406710013101616</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>409.7003683229638</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>52.49733361305806</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10831,7 +10831,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10907,25 +10907,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>308.1251096272087</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445238</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504532</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11138,13 +11138,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11153,16 +11153,16 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q42" t="n">
-        <v>124.3400780863238</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.7842838544522</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11390,10 +11390,10 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542477</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>48.00963876880208</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,7 +23658,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23673,7 +23673,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>82.39383318338565</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>158.0305496341425</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>118.2087294218304</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23946,19 +23946,19 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>133.8953512967686</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24366,25 +24366,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>145.8347951779762</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,19 +24648,19 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>110.319306902404</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24840,13 +24840,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>142.4217886249596</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,10 +24900,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25086,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>69.19204977841463</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836033</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>27.33564734553343</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037929</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>147.5861148847493</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V43" t="n">
-        <v>162.490999314115</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>92.94720031165562</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>108.8451328388535</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
     <row r="11">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>613223.9805588806</v>
+        <v>613223.9805588805</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176763</v>
+        <v>800515.7256176764</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176765</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
-      </c>
-      <c r="D2" t="n">
-        <v>800515.7256176763</v>
       </c>
       <c r="E2" t="n">
         <v>762506.6664885326</v>
       </c>
       <c r="F2" t="n">
+        <v>762506.6664885323</v>
+      </c>
+      <c r="G2" t="n">
         <v>762506.6664885327</v>
-      </c>
-      <c r="G2" t="n">
-        <v>762506.6664885326</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885324</v>
@@ -26337,25 +26337,25 @@
         <v>762506.6664885323</v>
       </c>
       <c r="J2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="K2" t="n">
         <v>762506.6664885324</v>
       </c>
       <c r="L2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="M2" t="n">
-        <v>762506.6664885321</v>
+        <v>762506.6664885324</v>
       </c>
       <c r="N2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="O2" t="n">
-        <v>762506.6664885328</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885324</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145447</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>5.012095698475605e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.513344614068046e-10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26435,31 +26435,31 @@
         <v>7916.731656007483</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007478</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007535</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="K4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="L4" t="n">
-        <v>7916.731656007876</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="M4" t="n">
-        <v>7916.73165600788</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="N4" t="n">
-        <v>7916.73165600749</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007465</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="P4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="C5" t="n">
+        <v>82859.07806340948</v>
+      </c>
+      <c r="D5" t="n">
         <v>82859.07806340946</v>
-      </c>
-      <c r="D5" t="n">
-        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26490,7 +26490,7 @@
         <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26499,19 +26499,19 @@
         <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871648</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20228.28037619854</v>
+        <v>-20228.28037619853</v>
       </c>
       <c r="C6" t="n">
-        <v>569739.598838346</v>
+        <v>569739.5988383463</v>
       </c>
       <c r="D6" t="n">
         <v>569739.598838346</v>
       </c>
       <c r="E6" t="n">
-        <v>137442.5724069122</v>
+        <v>136467.9811471904</v>
       </c>
       <c r="F6" t="n">
-        <v>662602.6088838086</v>
+        <v>661628.0176240868</v>
       </c>
       <c r="G6" t="n">
-        <v>662602.6088838085</v>
+        <v>661628.0176240869</v>
       </c>
       <c r="H6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240867</v>
       </c>
       <c r="I6" t="n">
-        <v>662602.6088838081</v>
+        <v>661628.0176240866</v>
       </c>
       <c r="J6" t="n">
-        <v>486179.3896912152</v>
+        <v>485204.7984314935</v>
       </c>
       <c r="K6" t="n">
-        <v>662602.6088838084</v>
+        <v>661628.0176240867</v>
       </c>
       <c r="L6" t="n">
-        <v>662602.6088838094</v>
+        <v>661628.0176240865</v>
       </c>
       <c r="M6" t="n">
-        <v>527801.5936499705</v>
+        <v>526827.0023902495</v>
       </c>
       <c r="N6" t="n">
-        <v>662602.6088838078</v>
+        <v>661628.0176240865</v>
       </c>
       <c r="O6" t="n">
-        <v>662602.6088838087</v>
+        <v>661628.0176240865</v>
       </c>
       <c r="P6" t="n">
-        <v>662602.6088838081</v>
+        <v>661628.0176240867</v>
       </c>
     </row>
   </sheetData>
@@ -26743,19 +26743,19 @@
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26767,16 +26767,16 @@
         <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054540987</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
+        <v>674.2872727545558</v>
+      </c>
+      <c r="D4" t="n">
         <v>674.2872727545556</v>
-      </c>
-      <c r="D4" t="n">
-        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26819,19 +26819,19 @@
         <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253571</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.178203989441209e-13</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27001,7 +27001,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>127.8176903426362</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>78.01277097493801</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,16 +27539,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>88.99529191828395</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,22 +27581,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>231.8063182229437</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>359.7411614872964</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>260.6756606197536</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,10 +27675,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>72.65411656644396</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491429</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801578</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.2051448974509</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>338.0925415791264</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>252.9046990258435</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>230.6199858141418</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.67633593728777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29058,7 +29058,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29817,7 +29817,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>8.526512829121202e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -30051,7 +30051,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>8.58335624798201e-12</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -31062,7 +31062,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O2" t="n">
         <v>255.8615389119866</v>
@@ -31071,19 +31071,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,31 +31120,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q4" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31241,7 +31241,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31299,7 +31299,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338305</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119866</v>
@@ -31308,19 +31308,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.390715366338</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473555</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141112</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188917</v>
       </c>
       <c r="I6" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396479</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736701</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479578</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078613</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644444</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813579</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302241</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175846</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383802</v>
       </c>
       <c r="Q7" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701165</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31478,7 +31478,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315611</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32238,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32311,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,7 +32466,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32475,31 +32475,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32548,31 +32548,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32627,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32639,7 +32639,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32651,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H34" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L34" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H37" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L37" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.33822072544361</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444938</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176649</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961199</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.634194604148</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130443</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565508</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927175</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540876</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946983</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446474</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104635</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562941</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U38" t="n">
-        <v>0.2670576580354888</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354099</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
-        <v>17.25001940386722</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127053</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215731</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622977</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358978</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724837</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813453</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855518</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458543</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710952</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095116</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677458</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361476</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1175069441680329</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.497410895081162</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H40" t="n">
-        <v>13.31334413990343</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298622</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
-        <v>105.8669502822381</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557931</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L40" t="n">
-        <v>222.624161619612</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171315</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263746</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
-        <v>211.6522236065628</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469069</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235689</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337657</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
-        <v>26.09578805336896</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892233</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351799</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>227.9948068710956</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34301,10 +34301,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34941,22 +34941,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M5" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713956</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873151</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>401.1632560839191</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341706</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>579.6103458172107</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734244</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>588.4784392551036</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507416</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35889,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q18" t="n">
-        <v>93.11369587443312</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36062,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36123,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303314</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>455.6595083608444</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36299,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36366,7 +36366,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36439,7 +36439,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
@@ -36451,10 +36451,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>516.7753531914248</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q24" t="n">
         <v>298.0903205209232</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
         <v>310.4243770504663</v>
@@ -36688,13 +36688,13 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>536.1008625915819</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>425.9753597058693</v>
       </c>
       <c r="M30" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P30" t="n">
-        <v>215.5001249446263</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560236</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>720.1247453734292</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415655</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>207.093414931524</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.01303278507368</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490637</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879387</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594828</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004653</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.194573398012</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>334.8610358541654</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>207.093414931524</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507368</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415074</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303322</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109062</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221106</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081107</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951462</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109114</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349771</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>41.91017895490637</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879387</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594828</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504654</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N39" t="n">
-        <v>333.194573398012</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411074</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>515.2185245587327</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209228</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556533</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299102</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799281</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
-        <v>274.3098411789721</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056032</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206025</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118004</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187452</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109098</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490663</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504661</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980127</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q42" t="n">
-        <v>212.3531108713979</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38110,10 +38110,10 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>570.772884818783</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_1_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4250315.097163968</v>
+        <v>4255254.360012999</v>
       </c>
     </row>
     <row r="7">
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>279.0583553990753</v>
+        <v>279.0583553990743</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -679,7 +679,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481168</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -749,7 +749,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933845</v>
+        <v>145.0692123933836</v>
       </c>
       <c r="G3" t="n">
         <v>136.5310119231965</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491429</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -873,7 +873,7 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>54.47555601903407</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>146.2003851219579</v>
+        <v>146.200385121957</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481168</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.7112368822933</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>43.31785343914014</v>
+        <v>43.31785343913981</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>55.90301252244922</v>
+        <v>55.90301252244944</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1423,7 +1423,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>118.4898845065125</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1606,10 +1606,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274137</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>209.7629556623152</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>183.1796758467</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>79.47420870022064</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>203.8435192151917</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896907</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3429,19 +3429,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>19.98005979843108</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
     </row>
     <row r="41">
@@ -3757,10 +3757,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113166</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>116.8645225501837</v>
       </c>
       <c r="Y46" t="n">
-        <v>109.7395205132413</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1603.407129497229</v>
+        <v>1603.407129497228</v>
       </c>
       <c r="C2" t="n">
-        <v>1234.444612556818</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="D2" t="n">
-        <v>1234.444612556818</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="E2" t="n">
-        <v>1234.444612556818</v>
+        <v>1234.444612556817</v>
       </c>
       <c r="F2" t="n">
         <v>952.5674858910851</v>
@@ -4327,55 +4327,55 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1993.546461473041</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1603.407129497229</v>
+        <v>1603.407129497228</v>
       </c>
     </row>
     <row r="3">
@@ -4385,16 +4385,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170839</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359569</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747056</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692501</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
         <v>359.3385232961344</v>
@@ -4406,10 +4406,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
         <v>309.190302261463</v>
@@ -4430,31 +4430,31 @@
         <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167583</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207639</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002106</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237152</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4506,34 +4506,34 @@
         <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600565</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942405</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124032</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>108.9687959810049</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1005.372199209268</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="C5" t="n">
-        <v>1005.372199209268</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="D5" t="n">
-        <v>1005.372199209268</v>
+        <v>1005.372199209267</v>
       </c>
       <c r="E5" t="n">
-        <v>619.583946611024</v>
+        <v>619.5839466110231</v>
       </c>
       <c r="F5" t="n">
         <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
         <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862887</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2134.880026519316</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>1782.111371249202</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1782.111371249202</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="Y5" t="n">
-        <v>1391.97203927339</v>
+        <v>1391.972039273389</v>
       </c>
     </row>
     <row r="6">
@@ -4643,10 +4643,10 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
         <v>309.190302261463</v>
@@ -4701,67 +4701,67 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036447</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064346</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
         <v>684.3735766921516</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4892,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4907,7 +4907,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
         <v>2488.762748073963</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4968,37 +4968,37 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
         <v>671.6612947898188</v>
@@ -5029,22 +5029,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028579</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795207</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5068,7 +5068,7 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5120,25 +5120,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>659.3731057211724</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M12" t="n">
-        <v>1427.741252113634</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N12" t="n">
-        <v>1757.603879777667</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5199,7 +5199,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
@@ -5208,7 +5208,7 @@
         <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
         <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>955.1031435655742</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W13" t="n">
-        <v>665.6859735286137</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X13" t="n">
-        <v>437.6964226305963</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y13" t="n">
-        <v>216.9038434870662</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
         <v>2059.358867610191</v>
@@ -5275,13 +5275,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5290,7 +5290,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
@@ -5299,31 +5299,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,16 +5354,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
         <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341673</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M15" t="n">
         <v>1247.466478653857</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5442,10 +5442,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5478,10 +5478,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5591,7 +5591,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>994.3109288932103</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>825.3747459653034</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1075.21084526296</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U19" t="n">
-        <v>786.0822064765186</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V19" t="n">
-        <v>531.3977182706318</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W19" t="n">
-        <v>241.9805482336712</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>1175.95939372345</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028584</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5937,22 +5937,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1090.100879744681</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y22" t="n">
         <v>97.21709146028584</v>
@@ -5977,13 +5977,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -6016,10 +6016,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6174,25 +6174,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="26">
@@ -6451,13 +6451,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805462</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
@@ -6490,10 +6490,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
         <v>4262.3578574653</v>
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6776,7 +6776,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6891,19 +6891,19 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
         <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6916,31 +6916,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155881</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823782</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795207</v>
@@ -6949,7 +6949,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6964,22 +6964,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028584</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U37" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V37" t="n">
-        <v>614.6238123952637</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W37" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028584</v>
+        <v>934.632733730781</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028584</v>
+        <v>713.8401545872508</v>
       </c>
     </row>
     <row r="38">
@@ -7359,22 +7359,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1382.222354598086</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011506</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952637</v>
+        <v>820.5263570570736</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>531.109187020113</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028584</v>
+        <v>303.1196361220957</v>
       </c>
       <c r="Y40" t="n">
         <v>97.21709146028584</v>
@@ -7390,31 +7390,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
         <v>1590.888347795206</v>
@@ -7429,31 +7429,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,28 +7478,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636248</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7611,10 +7611,10 @@
         <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="44">
@@ -7651,7 +7651,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795206</v>
@@ -7660,7 +7660,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,7 +7669,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7736,7 +7736,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N45" t="n">
         <v>1558.376451307619</v>
@@ -7848,7 +7848,7 @@
         <v>954.8146123150548</v>
       </c>
       <c r="X46" t="n">
-        <v>726.8250614170374</v>
+        <v>836.769640042142</v>
       </c>
       <c r="Y46" t="n">
         <v>615.9770608986119</v>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270191</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951785</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270191</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.658803395178</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516223</v>
+        <v>346.2692436516221</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8771,28 +8771,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>297.2466435761025</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>288.4091825776752</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9014,7 +9014,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>409.7003683229582</v>
+        <v>409.700368322958</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.34209567542477</v>
+        <v>61.34209567542521</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>82.39383318338565</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>8.82169768977954</v>
       </c>
     </row>
     <row r="20">
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>103.0576765518773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>87.77261239840719</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24414,13 +24414,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>82.39383318338568</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25317,19 +25317,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>205.7295955906061</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>14.74113413690304</v>
       </c>
     </row>
     <row r="41">
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="Y46" t="n">
-        <v>108.8451328388535</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>613223.9805588805</v>
+        <v>613223.9805588806</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>613223.9805588805</v>
+        <v>613223.9805588804</v>
       </c>
     </row>
     <row r="10">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176762</v>
       </c>
       <c r="C2" t="n">
-        <v>800515.7256176765</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
-        <v>762506.6664885326</v>
+        <v>762506.6664885327</v>
       </c>
       <c r="F2" t="n">
-        <v>762506.6664885323</v>
+        <v>762506.6664885322</v>
       </c>
       <c r="G2" t="n">
-        <v>762506.6664885327</v>
+        <v>762506.6664885328</v>
       </c>
       <c r="H2" t="n">
         <v>762506.6664885324</v>
@@ -26355,7 +26355,7 @@
         <v>762506.6664885322</v>
       </c>
       <c r="P2" t="n">
-        <v>762506.6664885324</v>
+        <v>762506.6664885322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145447</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26426,7 +26426,7 @@
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
@@ -26456,7 +26456,7 @@
         <v>7916.731656007483</v>
       </c>
       <c r="O4" t="n">
-        <v>7916.731656007483</v>
+        <v>7916.731656007536</v>
       </c>
       <c r="P4" t="n">
         <v>7916.731656007484</v>
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-20228.28037619853</v>
+        <v>-20228.28037619867</v>
       </c>
       <c r="C6" t="n">
-        <v>569739.5988383463</v>
+        <v>569739.598838346</v>
       </c>
       <c r="D6" t="n">
         <v>569739.598838346</v>
       </c>
       <c r="E6" t="n">
-        <v>136467.9811471904</v>
+        <v>137345.1132809402</v>
       </c>
       <c r="F6" t="n">
-        <v>661628.0176240868</v>
+        <v>662505.149757836</v>
       </c>
       <c r="G6" t="n">
-        <v>661628.0176240869</v>
+        <v>662505.1497578366</v>
       </c>
       <c r="H6" t="n">
-        <v>661628.0176240867</v>
+        <v>662505.1497578362</v>
       </c>
       <c r="I6" t="n">
-        <v>661628.0176240866</v>
+        <v>662505.1497578361</v>
       </c>
       <c r="J6" t="n">
-        <v>485204.7984314935</v>
+        <v>486081.9305652431</v>
       </c>
       <c r="K6" t="n">
-        <v>661628.0176240867</v>
+        <v>662505.1497578362</v>
       </c>
       <c r="L6" t="n">
-        <v>661628.0176240865</v>
+        <v>662505.149757836</v>
       </c>
       <c r="M6" t="n">
-        <v>526827.0023902495</v>
+        <v>527704.1345239991</v>
       </c>
       <c r="N6" t="n">
-        <v>661628.0176240865</v>
+        <v>662505.149757836</v>
       </c>
       <c r="O6" t="n">
-        <v>661628.0176240865</v>
+        <v>662505.1497578359</v>
       </c>
       <c r="P6" t="n">
-        <v>661628.0176240867</v>
+        <v>662505.149757836</v>
       </c>
     </row>
   </sheetData>
@@ -26740,16 +26740,16 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170866</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170867</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170866</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541003</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
         <v>674.2872727545556</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>127.8176903426362</v>
+        <v>127.8176903426371</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27593,7 +27593,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>231.8063182229437</v>
+        <v>231.8063182229438</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27627,7 +27627,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>260.6756606197536</v>
+        <v>260.6756606197545</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448612</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491429</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>243.2051448974509</v>
+        <v>243.2051448974512</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28073,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>230.6199858141418</v>
+        <v>230.6199858141416</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -30477,7 +30477,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31062,7 +31062,7 @@
         <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
         <v>255.8615389119866</v>
@@ -31071,19 +31071,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,31 +31120,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
         <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479578</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
         <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31241,7 +31241,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31284,22 +31284,22 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338305</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119866</v>
@@ -31308,19 +31308,19 @@
         <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044138</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.390715366338</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727384</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473555</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141112</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188917</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396479</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478008</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983123</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736701</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923048</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078613</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644444</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813579</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302241</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175846</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383802</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701165</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31478,7 +31478,7 @@
         <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315611</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31755,7 +31755,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31764,31 +31764,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31837,31 +31837,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,7 +31928,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,16 +31989,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32007,7 +32007,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32016,7 +32016,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32025,7 +32025,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,7 +32068,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32077,7 +32077,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32086,10 +32086,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32168,7 +32168,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32180,16 +32180,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34122,16 +34122,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34140,7 +34140,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34149,7 +34149,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34158,7 +34158,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34210,7 +34210,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34219,10 +34219,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34237,10 +34237,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34301,7 +34301,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34313,16 +34313,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,16 +34359,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34377,7 +34377,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34386,7 +34386,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34395,7 +34395,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,7 +34438,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34447,7 +34447,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34456,10 +34456,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34538,7 +34538,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34550,16 +34550,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34704,22 +34704,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
         <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730635</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435303</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492238</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530453</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
         <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713956</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873151</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279162</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,25 +35415,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O12" t="n">
-        <v>579.6103458172107</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315248</v>
+        <v>495.5025975091999</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35588,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,13 +35649,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35670,7 +35670,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490666</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35734,19 +35734,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>720.1247453734244</v>
+        <v>720.1247453734243</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315246</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.0130327850741</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35819,13 +35819,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37782,13 +37782,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,16 +37867,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
         <v>250.2141868799285</v>
@@ -37952,13 +37952,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38040,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38104,16 +38104,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
         <v>250.2141868799285</v>
@@ -38189,13 +38189,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
